--- a/admin/auth.xlsx
+++ b/admin/auth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BIG WORLD\face_recog\webpage\webpage_adhi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\attendance system\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949886E4-B4F5-491C-86C6-0C5D102F5FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F73B57-44B8-4B9F-898F-72BB96A01061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -31,16 +31,16 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>aditya</t>
-  </si>
-  <si>
-    <t>qw</t>
-  </si>
-  <si>
-    <t>adi</t>
-  </si>
-  <si>
-    <t>aa</t>
+    <t>M1001</t>
+  </si>
+  <si>
+    <t>bigworld</t>
+  </si>
+  <si>
+    <t>M1002</t>
+  </si>
+  <si>
+    <t>maagrita</t>
   </si>
 </sst>
 </file>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,41 +423,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1001</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1002</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1004</v>
+      <c r="C3">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
